--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760251.9455487469</v>
+        <v>839045.6479924397</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5389411.289474637</v>
+        <v>5739665.974240762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9704516.315063084</v>
+        <v>9561717.972910352</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>236.9445618759077</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>245.3924319518751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.5027752869401</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>64.57009008111693</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>92.45356230877212</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>120.33325546674</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>181.4486586521714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>146.9246168288997</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>106.5867442799591</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1534,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.67037196991755</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>94.81275980261576</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.76470074482877</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>65.36690640948929</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.87586630382179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>99.59933623926837</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>104.2590660175765</v>
       </c>
       <c r="H22" t="n">
-        <v>119.05257541788</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041367</v>
+        <v>321.4267434728696</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>53.82704427691645</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.0887044553502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>361.0875163189255</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.5140811170491</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.93628836873249</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>28.93420885558167</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>199.7325946875374</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>161.7889189752534</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>155.7123319296402</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>88.01624809068225</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>199.7325946875383</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>166.0509296744557</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.5957429218789</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>211.0785184722386</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3439,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.85005436466994</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>57.92518451681089</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.32192060851568</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.63807347850683</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>105.0023863360942</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>143.7391787249551</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>59.9032091929889</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.26325471341</v>
+        <v>486.5829526725264</v>
       </c>
       <c r="C2" t="n">
-        <v>795.3007377729979</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>437.0350391662474</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1989.556538243654</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1989.556538243654</v>
       </c>
       <c r="W2" t="n">
-        <v>2314.468185014423</v>
+        <v>1636.78788297354</v>
       </c>
       <c r="X2" t="n">
-        <v>1941.002426753343</v>
+        <v>1263.32212471246</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.863094777531</v>
+        <v>873.1827927366483</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,31 +4406,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>182.9275483748796</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>367.6491696559297</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>662.3527266874014</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.614745646621</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>977.1399948936612</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C4" t="n">
-        <v>977.1399948936612</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D4" t="n">
-        <v>977.1399948936612</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936612</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936612</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="U4" t="n">
-        <v>2076.592243063854</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="V4" t="n">
-        <v>1821.907754857967</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.490584821007</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="X4" t="n">
-        <v>1304.501033922989</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y4" t="n">
-        <v>1083.708454779459</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1164.263254713409</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392149</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="D5" t="n">
-        <v>194.5422403324644</v>
+        <v>437.0350391662473</v>
       </c>
       <c r="E5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>1550.863094777531</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1550.863094777531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>796.8106393615039</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>978.4591041917437</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>978.4591041917437</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>978.4591041917437</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>772.5608581015648</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X10" t="n">
-        <v>772.5608581015648</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,7 +5056,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5078,13 +5080,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.7622949738584</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C13" t="n">
-        <v>583.8261120459515</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D13" t="n">
-        <v>433.7094726336157</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>285.7963790512226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218343</v>
@@ -5200,16 +5202,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5227,22 +5229,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845646</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947628</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040981</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2071.97538618064</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.97538618064</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.939223126803</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,19 +5533,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
         <v>2755.806928794324</v>
@@ -5552,13 +5554,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.189385922801</v>
@@ -5598,7 +5600,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,22 +5612,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>846.3749096777597</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C19" t="n">
-        <v>677.4387267498528</v>
+        <v>690.674942710575</v>
       </c>
       <c r="D19" t="n">
-        <v>527.322087337517</v>
+        <v>690.674942710575</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.59460854119</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.59460854119</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.605057643173</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y19" t="n">
-        <v>1028.023374507999</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796261</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>921.7704558796261</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>921.7704558796261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>921.7704558796261</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
         <v>821.1650657389509</v>
@@ -5750,7 +5752,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>820.4128495803448</v>
+        <v>2183.99144126995</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4766666524379</v>
+        <v>2015.055258342043</v>
       </c>
       <c r="D22" t="n">
-        <v>501.3600272401021</v>
+        <v>1864.938618929707</v>
       </c>
       <c r="E22" t="n">
-        <v>501.3600272401021</v>
+        <v>1717.025525347314</v>
       </c>
       <c r="F22" t="n">
-        <v>354.4700797421917</v>
+        <v>1570.135577849403</v>
       </c>
       <c r="G22" t="n">
-        <v>186.7672431169107</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.843444452132</v>
+        <v>2814.422036141736</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.853893554115</v>
+        <v>2586.432485243719</v>
       </c>
       <c r="Y22" t="n">
-        <v>1002.061314410584</v>
+        <v>2365.639906100189</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038042</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097631</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.40402049088</v>
+        <v>1485.543352466692</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926361</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030285</v>
+        <v>688.7691950788401</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5990,13 +5992,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6032,7 +6034,7 @@
         <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102164</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>826.5851666348717</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C25" t="n">
-        <v>657.6489837069648</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D25" t="n">
-        <v>507.5323442946291</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
         <v>66.5121164321834</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1872.923796293628</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1681.237912120454</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1459.47129668998</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658019</v>
+        <v>1170.368429815624</v>
       </c>
       <c r="V25" t="n">
-        <v>1705.527932658019</v>
+        <v>915.6839416097368</v>
       </c>
       <c r="W25" t="n">
-        <v>1416.110762621058</v>
+        <v>626.2667715727762</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.121211723041</v>
+        <v>398.2772206747588</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.233631465111</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1998.10447029351</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C26" t="n">
-        <v>1629.141953353098</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D26" t="n">
-        <v>1270.876254746348</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>885.0880021481032</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F26" t="n">
-        <v>474.1020973584957</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X26" t="n">
-        <v>2388.243802269321</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y26" t="n">
-        <v>1998.10447029351</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6291,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.924953962484</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034577</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U28" t="n">
-        <v>2744.609442168371</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V28" t="n">
-        <v>2489.924953962484</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W28" t="n">
-        <v>2489.924953962484</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X28" t="n">
-        <v>2489.924953962484</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y28" t="n">
-        <v>2489.924953962484</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796265</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C29" t="n">
-        <v>552.8079389392149</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D29" t="n">
-        <v>523.5814653477182</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6491,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.7293032143257</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C31" t="n">
-        <v>212.7293032143257</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6646,25 +6648,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1674.040940365967</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1452.274324935493</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X31" t="n">
-        <v>433.5218823578558</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.7293032143257</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218343</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6731,19 +6733,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3013.565057492288</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2682.502170148718</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2329.733514878603</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.267756617523</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310.0549803959803</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C34" t="n">
-        <v>310.0549803959803</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>310.0549803959803</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W34" t="n">
-        <v>712.4960243697501</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X34" t="n">
-        <v>712.4960243697501</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.70344522622</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2230.937844028708</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C35" t="n">
-        <v>1861.975327088297</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1105.781096096227</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>694.7951913066199</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>279.7227411516164</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
-        <v>2994.5429342656</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>2621.07717600452</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y35" t="n">
-        <v>2230.937844028708</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.744041450754</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>2424.744041450754</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2170.872131622242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796265</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392149</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D41" t="n">
-        <v>194.5422403324644</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.1535645674204</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>755.2173816395135</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>605.1007422271778</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>457.1876486447846</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>310.2977011468743</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>142.5948645215932</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7606,13 +7608,13 @@
         <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.59460854119</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>1326.59460854119</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.80202939766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7646,10 +7648,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7676,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.5809963705858</v>
+        <v>1801.46240950605</v>
       </c>
       <c r="C46" t="n">
-        <v>624.6448134426789</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="D46" t="n">
-        <v>479.4537238215122</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="E46" t="n">
-        <v>331.5406302391191</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="F46" t="n">
-        <v>331.5406302391191</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>3265.097529495041</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242373</v>
+        <v>2975.994662620685</v>
       </c>
       <c r="V46" t="n">
-        <v>1424.011591242373</v>
+        <v>2721.310174414798</v>
       </c>
       <c r="W46" t="n">
-        <v>1424.011591242373</v>
+        <v>2431.893004377837</v>
       </c>
       <c r="X46" t="n">
-        <v>1196.022040344356</v>
+        <v>2203.90345347982</v>
       </c>
       <c r="Y46" t="n">
-        <v>975.2294612008255</v>
+        <v>1983.110874336289</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>70.03064962107905</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>114.3555089013344</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,7 +22567,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>14.10068825255428</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>103.8485367655379</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.32920489499716</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22755,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>156.178605916095</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>256.7874064086409</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,10 +22944,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22954,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>74.32920489499753</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23002,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>105.0743396844196</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>218.3482749421078</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23185,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>45.97334457806383</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23239,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>179.9362540566319</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.35543628911067</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>270.4601319683918</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>81.06705623707988</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.708787048273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>61.76674224145175</v>
       </c>
       <c r="H22" t="n">
-        <v>25.70243949644079</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24184,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493168</v>
+        <v>89.4949821805838</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>35.10510839313088</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.49594889674464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.185375452082042</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>7.407644536404348</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>209.2755498368804</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7488327651013</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>51.26257727136462</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.98010635618854</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>69.99732345939699</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>51.26257727136371</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>120.4720686621353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0872986988041</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>83.52924591508182</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25369,7 +25371,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>183.2875889591581</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>77.37908764444971</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>145.9927856228092</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>69.4330943058051</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.8849248580842</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25916,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>145.9927856228078</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4.876294293257303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770100.8188680861</v>
+        <v>770100.8188680859</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>845811.9398839654</v>
+        <v>770100.8188680861</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845811.9398839654</v>
+        <v>770100.818868086</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26316,25 @@
         <v>321270.212019024</v>
       </c>
       <c r="C2" t="n">
+        <v>321270.2120190238</v>
+      </c>
+      <c r="D2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="E2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="E2" t="n">
-        <v>358046.9539194668</v>
-      </c>
-      <c r="F2" t="n">
-        <v>358046.9539194667</v>
-      </c>
       <c r="G2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194663</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
@@ -26341,7 +26343,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
@@ -26353,7 +26355,7 @@
         <v>358046.9539194667</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.0927060546</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>20992.13942082912</v>
       </c>
       <c r="C4" t="n">
+        <v>20992.13942082913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20992.13942082912</v>
+      </c>
+      <c r="E4" t="n">
         <v>10990.29103211609</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10990.29103211609</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10990.29103211607</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211609</v>
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26491,7 +26493,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26500,13 +26502,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907411.4834175698</v>
+        <v>-907411.4834175695</v>
       </c>
       <c r="C6" t="n">
-        <v>35683.98071385146</v>
+        <v>207340.30015835</v>
       </c>
       <c r="D6" t="n">
-        <v>239122.7223259573</v>
+        <v>207340.3001583499</v>
       </c>
       <c r="E6" t="n">
-        <v>272750.3223259574</v>
+        <v>90677.34250876668</v>
       </c>
       <c r="F6" t="n">
-        <v>272750.3223259575</v>
+        <v>272750.3223259572</v>
       </c>
       <c r="G6" t="n">
-        <v>272750.322325957</v>
+        <v>272750.3223259571</v>
       </c>
       <c r="H6" t="n">
-        <v>272750.3223259569</v>
+        <v>272750.3223259571</v>
       </c>
       <c r="I6" t="n">
-        <v>272750.3223259574</v>
+        <v>272750.3223259571</v>
       </c>
       <c r="J6" t="n">
-        <v>105145.1445159747</v>
+        <v>105145.1445159749</v>
       </c>
       <c r="K6" t="n">
-        <v>223640.2296199026</v>
+        <v>272750.3223259571</v>
       </c>
       <c r="L6" t="n">
-        <v>272750.3223259573</v>
+        <v>272750.3223259571</v>
       </c>
       <c r="M6" t="n">
-        <v>272750.3223259572</v>
+        <v>225198.0565325423</v>
       </c>
       <c r="N6" t="n">
         <v>272750.3223259572</v>
@@ -26561,7 +26563,7 @@
         <v>272750.3223259573</v>
       </c>
       <c r="P6" t="n">
-        <v>272750.3223259573</v>
+        <v>272750.3223259572</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
@@ -26811,22 +26813,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26957,17 +26959,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="E3" t="n">
         <v>155.711808475759</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022544</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34129,7 +34131,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133.0108705119965</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>364.0350380248667</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
